--- a/Project2/Project2/Book5.xlsx
+++ b/Project2/Project2/Book5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\新しいフォルダー\Project2\map情報\map情報\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\test\Project2\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -655,7 +655,66 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -933,9 +992,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BV17" sqref="BV17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="80" width="2.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A1">
@@ -1274,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -1292,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -1343,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2">
         <v>0</v>
@@ -1516,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -1534,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -1585,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3">
         <v>0</v>
@@ -1746,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1758,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1776,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1827,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4">
         <v>0</v>
@@ -1854,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM4">
         <v>0</v>
@@ -1881,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="BU4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV4">
         <v>0</v>
@@ -2000,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -2018,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -2069,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -2242,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -2260,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -2311,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6">
         <v>0</v>
@@ -2329,49 +2393,49 @@
         <v>0</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX6">
         <v>0</v>
@@ -2466,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -2484,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -2502,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -2553,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7">
         <v>0</v>
@@ -2571,49 +2635,49 @@
         <v>0</v>
       </c>
       <c r="BI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX7">
         <v>0</v>
@@ -2636,73 +2700,73 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -2726,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -2744,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -2792,13 +2856,13 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8">
         <v>0</v>
@@ -2813,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK8">
         <v>0</v>
@@ -2878,73 +2942,73 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -2968,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -2986,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -3037,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9">
         <v>0</v>
@@ -3055,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="BI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK9">
         <v>0</v>
@@ -3100,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="BX9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BY9">
         <v>0</v>
@@ -3117,7 +3181,7 @@
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3150,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -3183,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -3204,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -3228,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -3246,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS10">
         <v>0</v>
@@ -3279,10 +3343,10 @@
         <v>0</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10">
         <v>0</v>
@@ -3297,10 +3361,10 @@
         <v>0</v>
       </c>
       <c r="BI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK10">
         <v>0</v>
@@ -3345,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="BY10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ10">
         <v>0</v>
@@ -3359,7 +3423,7 @@
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3425,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -3452,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -3470,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -3521,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11">
         <v>0</v>
@@ -3539,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="BI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK11">
         <v>0</v>
@@ -3601,7 +3665,7 @@
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3667,10 +3731,10 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -3694,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -3712,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -3763,10 +3827,10 @@
         <v>0</v>
       </c>
       <c r="BC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12">
         <v>0</v>
@@ -3781,10 +3845,10 @@
         <v>0</v>
       </c>
       <c r="BI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK12">
         <v>0</v>
@@ -3799,31 +3863,31 @@
         <v>0</v>
       </c>
       <c r="BO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX12">
         <v>0</v>
@@ -3843,7 +3907,7 @@
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3909,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -3936,10 +4000,10 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -3954,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
@@ -4005,10 +4069,10 @@
         <v>0</v>
       </c>
       <c r="BC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13">
         <v>0</v>
@@ -4023,10 +4087,10 @@
         <v>0</v>
       </c>
       <c r="BI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK13">
         <v>0</v>
@@ -4041,31 +4105,31 @@
         <v>0</v>
       </c>
       <c r="BO13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX13">
         <v>0</v>
@@ -4085,7 +4149,7 @@
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4151,10 +4215,10 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -4166,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -4178,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -4196,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -4247,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="BC14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14">
         <v>0</v>
@@ -4265,10 +4329,10 @@
         <v>0</v>
       </c>
       <c r="BI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK14">
         <v>0</v>
@@ -4283,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="BO14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ14">
         <v>0</v>
@@ -4327,7 +4391,7 @@
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4393,10 +4457,10 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -4420,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -4438,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -4489,10 +4553,10 @@
         <v>0</v>
       </c>
       <c r="BC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15">
         <v>0</v>
@@ -4507,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="BI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK15">
         <v>0</v>
@@ -4525,10 +4589,10 @@
         <v>0</v>
       </c>
       <c r="BO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ15">
         <v>0</v>
@@ -4569,7 +4633,7 @@
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4593,46 +4657,46 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -4641,31 +4705,31 @@
         <v>1</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -4680,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -4731,10 +4795,10 @@
         <v>0</v>
       </c>
       <c r="BC16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16">
         <v>0</v>
@@ -4749,10 +4813,10 @@
         <v>0</v>
       </c>
       <c r="BI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK16">
         <v>0</v>
@@ -4767,10 +4831,10 @@
         <v>0</v>
       </c>
       <c r="BO16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ16">
         <v>0</v>
@@ -4788,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="BV16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW16">
         <v>0</v>
@@ -4811,7 +4875,7 @@
     </row>
     <row r="17" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4877,10 +4941,10 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -4904,10 +4968,10 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -4922,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -4973,10 +5037,10 @@
         <v>0</v>
       </c>
       <c r="BC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17">
         <v>0</v>
@@ -4991,10 +5055,10 @@
         <v>0</v>
       </c>
       <c r="BI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK17">
         <v>0</v>
@@ -5009,10 +5073,10 @@
         <v>0</v>
       </c>
       <c r="BO17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ17">
         <v>0</v>
@@ -5056,73 +5120,73 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -5146,79 +5210,79 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18">
         <v>0</v>
@@ -5233,10 +5297,10 @@
         <v>0</v>
       </c>
       <c r="BI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK18">
         <v>0</v>
@@ -5251,10 +5315,10 @@
         <v>0</v>
       </c>
       <c r="BO18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ18">
         <v>0</v>
@@ -5269,25 +5333,25 @@
         <v>0</v>
       </c>
       <c r="BU18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB18">
         <v>1</v>
@@ -5298,73 +5362,73 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -5388,79 +5452,79 @@
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19">
         <v>0</v>
@@ -5475,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="BI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK19">
         <v>0</v>
@@ -5493,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="BO19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ19">
         <v>0</v>
@@ -5511,25 +5575,25 @@
         <v>0</v>
       </c>
       <c r="BU19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB19">
         <v>1</v>
@@ -5630,10 +5694,10 @@
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -5648,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -5699,10 +5763,10 @@
         <v>0</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20">
         <v>0</v>
@@ -5717,10 +5781,10 @@
         <v>0</v>
       </c>
       <c r="BI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK20">
         <v>0</v>
@@ -5735,10 +5799,10 @@
         <v>0</v>
       </c>
       <c r="BO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ20">
         <v>0</v>
@@ -5812,55 +5876,55 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -5872,10 +5936,10 @@
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -5890,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -5941,10 +6005,10 @@
         <v>0</v>
       </c>
       <c r="BC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21">
         <v>0</v>
@@ -5953,16 +6017,16 @@
         <v>0</v>
       </c>
       <c r="BG21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH21">
         <v>0</v>
       </c>
       <c r="BI21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK21">
         <v>0</v>
@@ -5977,10 +6041,10 @@
         <v>0</v>
       </c>
       <c r="BO21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ21">
         <v>0</v>
@@ -6001,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="BW21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BX21">
         <v>0</v>
@@ -6051,10 +6115,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -6087,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -6102,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -6114,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -6132,10 +6196,10 @@
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN22">
         <v>0</v>
@@ -6168,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AY22">
         <v>0</v>
@@ -6183,10 +6247,10 @@
         <v>0</v>
       </c>
       <c r="BC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22">
         <v>0</v>
@@ -6201,10 +6265,10 @@
         <v>0</v>
       </c>
       <c r="BI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK22">
         <v>0</v>
@@ -6219,10 +6283,10 @@
         <v>0</v>
       </c>
       <c r="BO22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ22">
         <v>0</v>
@@ -6296,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -6344,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -6356,10 +6420,10 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -6374,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -6425,10 +6489,10 @@
         <v>0</v>
       </c>
       <c r="BC23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23">
         <v>0</v>
@@ -6443,10 +6507,10 @@
         <v>0</v>
       </c>
       <c r="BI23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK23">
         <v>0</v>
@@ -6461,10 +6525,10 @@
         <v>0</v>
       </c>
       <c r="BO23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ23">
         <v>0</v>
@@ -6520,49 +6584,49 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -6577,31 +6641,31 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <v>1</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -6616,79 +6680,79 @@
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK24">
         <v>0</v>
@@ -6703,43 +6767,43 @@
         <v>0</v>
       </c>
       <c r="BO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB24">
         <v>1</v>
@@ -6762,49 +6826,49 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -6819,31 +6883,31 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25">
         <v>1</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -6858,79 +6922,79 @@
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK25">
         <v>0</v>
@@ -6945,43 +7009,43 @@
         <v>0</v>
       </c>
       <c r="BO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB25">
         <v>1</v>
@@ -7022,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -7070,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -7100,97 +7164,97 @@
         <v>0</v>
       </c>
       <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
         <v>3</v>
       </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="AZ26">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
-      <c r="BB26">
-        <v>0</v>
-      </c>
-      <c r="BC26">
-        <v>0</v>
-      </c>
-      <c r="BD26">
-        <v>0</v>
-      </c>
-      <c r="BE26">
-        <v>0</v>
-      </c>
-      <c r="BF26">
-        <v>0</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>0</v>
-      </c>
-      <c r="BI26">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
-      </c>
-      <c r="BK26">
-        <v>0</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BM26">
-        <v>0</v>
-      </c>
-      <c r="BN26">
-        <v>0</v>
-      </c>
-      <c r="BO26">
-        <v>0</v>
-      </c>
       <c r="BP26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ26">
         <v>0</v>
@@ -7264,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -7312,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -7342,97 +7406,97 @@
         <v>0</v>
       </c>
       <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
         <v>3</v>
       </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BB27">
-        <v>0</v>
-      </c>
-      <c r="BC27">
-        <v>0</v>
-      </c>
-      <c r="BD27">
-        <v>0</v>
-      </c>
-      <c r="BE27">
-        <v>0</v>
-      </c>
-      <c r="BF27">
-        <v>0</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>0</v>
-      </c>
-      <c r="BI27">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
-      </c>
-      <c r="BK27">
-        <v>0</v>
-      </c>
-      <c r="BL27">
-        <v>0</v>
-      </c>
-      <c r="BM27">
-        <v>0</v>
-      </c>
-      <c r="BN27">
-        <v>0</v>
-      </c>
-      <c r="BO27">
-        <v>0</v>
-      </c>
       <c r="BP27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ27">
         <v>0</v>
@@ -7453,10 +7517,10 @@
         <v>0</v>
       </c>
       <c r="BW27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY27">
         <v>0</v>
@@ -7506,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -7554,10 +7618,10 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -7584,97 +7648,97 @@
         <v>0</v>
       </c>
       <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
         <v>3</v>
       </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AS28">
-        <v>0</v>
-      </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
-      <c r="AW28">
-        <v>0</v>
-      </c>
-      <c r="AX28">
-        <v>0</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <v>0</v>
-      </c>
-      <c r="BC28">
-        <v>0</v>
-      </c>
-      <c r="BD28">
-        <v>0</v>
-      </c>
-      <c r="BE28">
-        <v>0</v>
-      </c>
-      <c r="BF28">
-        <v>0</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>0</v>
-      </c>
-      <c r="BI28">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>0</v>
-      </c>
-      <c r="BK28">
-        <v>0</v>
-      </c>
-      <c r="BL28">
-        <v>0</v>
-      </c>
-      <c r="BM28">
-        <v>0</v>
-      </c>
-      <c r="BN28">
-        <v>0</v>
-      </c>
-      <c r="BO28">
-        <v>0</v>
-      </c>
       <c r="BP28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ28">
         <v>0</v>
@@ -7695,10 +7759,10 @@
         <v>0</v>
       </c>
       <c r="BW28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY28">
         <v>0</v>
@@ -7748,55 +7812,55 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -7826,97 +7890,97 @@
         <v>0</v>
       </c>
       <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>2</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>4</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
         <v>3</v>
       </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AX29">
-        <v>0</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <v>0</v>
-      </c>
-      <c r="BC29">
-        <v>0</v>
-      </c>
-      <c r="BD29">
-        <v>0</v>
-      </c>
-      <c r="BE29">
-        <v>0</v>
-      </c>
-      <c r="BF29">
-        <v>0</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>0</v>
-      </c>
-      <c r="BI29">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>4</v>
-      </c>
-      <c r="BK29">
-        <v>4</v>
-      </c>
-      <c r="BL29">
-        <v>4</v>
-      </c>
-      <c r="BM29">
-        <v>0</v>
-      </c>
-      <c r="BN29">
-        <v>0</v>
-      </c>
-      <c r="BO29">
-        <v>0</v>
-      </c>
       <c r="BP29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ29">
         <v>0</v>
@@ -7960,238 +8024,238 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BK30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BL30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BM30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB30">
         <v>1</v>
@@ -8199,7 +8263,7 @@
     </row>
     <row r="31" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8295,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -8310,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM31">
         <v>0</v>
@@ -8382,13 +8446,13 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BK31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BL31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BM31">
         <v>0</v>
@@ -8415,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="BU31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV31">
         <v>0</v>
@@ -8436,12 +8500,12 @@
         <v>0</v>
       </c>
       <c r="CB31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -8552,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM32">
         <v>0</v>
@@ -8678,12 +8742,12 @@
         <v>0</v>
       </c>
       <c r="CB32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -8794,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -8920,12 +8984,12 @@
         <v>0</v>
       </c>
       <c r="CB33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -8964,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -9000,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
         <v>0</v>
@@ -9036,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM34">
         <v>0</v>
@@ -9162,12 +9226,12 @@
         <v>0</v>
       </c>
       <c r="CB34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -9206,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -9221,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -9242,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -9278,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM35">
         <v>0</v>
@@ -9311,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="AW35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX35">
         <v>0</v>
@@ -9404,12 +9468,12 @@
         <v>0</v>
       </c>
       <c r="CB35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -9448,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -9484,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -9520,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
         <v>0</v>
@@ -9646,12 +9710,12 @@
         <v>0</v>
       </c>
       <c r="CB36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -9672,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -9690,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -9726,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -9762,7 +9826,7 @@
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -9888,12 +9952,12 @@
         <v>0</v>
       </c>
       <c r="CB37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -9932,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -9968,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA38">
         <v>0</v>
@@ -10004,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
         <v>0</v>
@@ -10130,12 +10194,12 @@
         <v>0</v>
       </c>
       <c r="CB38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -10177,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -10207,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -10246,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
         <v>0</v>
@@ -10372,12 +10436,12 @@
         <v>0</v>
       </c>
       <c r="CB39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -10419,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -10449,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -10467,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="AE40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -10488,7 +10552,7 @@
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
         <v>0</v>
@@ -10614,12 +10678,12 @@
         <v>0</v>
       </c>
       <c r="CB40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -10730,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
         <v>0</v>
@@ -10856,12 +10920,12 @@
         <v>0</v>
       </c>
       <c r="CB41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -10972,7 +11036,7 @@
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
         <v>0</v>
@@ -11098,12 +11162,12 @@
         <v>0</v>
       </c>
       <c r="CB42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -11214,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
         <v>0</v>
@@ -11298,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="BN43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO43">
         <v>0</v>
@@ -11340,12 +11404,12 @@
         <v>0</v>
       </c>
       <c r="CB43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -11456,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
         <v>0</v>
@@ -11582,12 +11646,12 @@
         <v>0</v>
       </c>
       <c r="CB44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -11698,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45">
         <v>0</v>
@@ -11824,12 +11888,12 @@
         <v>0</v>
       </c>
       <c r="CB45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -11853,73 +11917,73 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -11940,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -12066,12 +12130,12 @@
         <v>0</v>
       </c>
       <c r="CB46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -12182,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
         <v>0</v>
@@ -12308,12 +12372,12 @@
         <v>0</v>
       </c>
       <c r="CB47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -12424,7 +12488,7 @@
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
         <v>0</v>
@@ -12550,12 +12614,12 @@
         <v>0</v>
       </c>
       <c r="CB48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -12666,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
         <v>0</v>
@@ -12723,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="BE49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF49">
         <v>0</v>
@@ -12792,12 +12856,12 @@
         <v>0</v>
       </c>
       <c r="CB49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -12908,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
         <v>0</v>
@@ -13034,12 +13098,12 @@
         <v>0</v>
       </c>
       <c r="CB50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -13150,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
         <v>0</v>
@@ -13276,12 +13340,12 @@
         <v>0</v>
       </c>
       <c r="CB51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -13392,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="AL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52">
         <v>0</v>
@@ -13518,12 +13582,12 @@
         <v>0</v>
       </c>
       <c r="CB52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -13634,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="AL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53">
         <v>0</v>
@@ -13760,12 +13824,12 @@
         <v>0</v>
       </c>
       <c r="CB53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -13876,7 +13940,7 @@
         <v>0</v>
       </c>
       <c r="AL54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54">
         <v>0</v>
@@ -14002,12 +14066,12 @@
         <v>0</v>
       </c>
       <c r="CB54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -14040,7 +14104,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -14094,7 +14158,7 @@
         <v>0</v>
       </c>
       <c r="AD55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE55">
         <v>0</v>
@@ -14118,7 +14182,7 @@
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55">
         <v>0</v>
@@ -14244,12 +14308,12 @@
         <v>0</v>
       </c>
       <c r="CB55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -14360,7 +14424,7 @@
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
         <v>0</v>
@@ -14486,12 +14550,12 @@
         <v>0</v>
       </c>
       <c r="CB56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -14602,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
         <v>0</v>
@@ -14728,12 +14792,12 @@
         <v>0</v>
       </c>
       <c r="CB57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -14844,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
         <v>0</v>
@@ -14970,12 +15034,12 @@
         <v>0</v>
       </c>
       <c r="CB58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -15086,7 +15150,7 @@
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
         <v>0</v>
@@ -15212,253 +15276,279 @@
         <v>0</v>
       </c>
       <c r="CB59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="A1:CB60">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:CB30">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>